--- a/data/trans_orig/P6704-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6704-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>65183</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50979</v>
+        <v>50647</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81003</v>
+        <v>79979</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2342273703366203</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1831842000958875</v>
+        <v>0.1819916246447342</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2910726514392998</v>
+        <v>0.2873926226399106</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -764,19 +764,19 @@
         <v>44961</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33373</v>
+        <v>34378</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57420</v>
+        <v>58271</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2022774727718749</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1501449695027943</v>
+        <v>0.1546671775252852</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2583302529162334</v>
+        <v>0.2621587041707679</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>100</v>
@@ -785,19 +785,19 @@
         <v>110144</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>91706</v>
+        <v>91191</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>130244</v>
+        <v>129556</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2200401602690253</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.183204659193314</v>
+        <v>0.1821769754044492</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2601952348693192</v>
+        <v>0.2588205869178964</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>29280</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19838</v>
+        <v>20543</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>41979</v>
+        <v>42465</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1052140595378157</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07128442490731197</v>
+        <v>0.07381822050810267</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1508461439498874</v>
+        <v>0.1525929764831896</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -835,19 +835,19 @@
         <v>34264</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23863</v>
+        <v>24408</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47093</v>
+        <v>47090</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1541506831330562</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1073579607109696</v>
+        <v>0.1098128652796264</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2118691970993889</v>
+        <v>0.211855138156405</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>58</v>
@@ -856,19 +856,19 @@
         <v>63544</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>47948</v>
+        <v>49352</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79853</v>
+        <v>84724</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1269441498311439</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09578719776118989</v>
+        <v>0.09859345819529715</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1595254394018849</v>
+        <v>0.1692568840349584</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>81214</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>67163</v>
+        <v>66267</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>97458</v>
+        <v>98515</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2918329899008772</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2413417239434128</v>
+        <v>0.2381200493223037</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.350203346954215</v>
+        <v>0.3540000145367328</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>59</v>
@@ -906,19 +906,19 @@
         <v>64980</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>51112</v>
+        <v>52920</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>79481</v>
+        <v>81888</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2923432479340466</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2299536695407511</v>
+        <v>0.2380869845270281</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3575827934877916</v>
+        <v>0.3684115429983456</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>136</v>
@@ -927,19 +927,19 @@
         <v>146195</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>127380</v>
+        <v>126112</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>169343</v>
+        <v>166332</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2920595677135472</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2544726472152642</v>
+        <v>0.2519403281444614</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3383042795962065</v>
+        <v>0.3322887447980974</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>50332</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37534</v>
+        <v>38507</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64323</v>
+        <v>63866</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.180861895554949</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.134872116905782</v>
+        <v>0.1383689423985952</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2311370838963633</v>
+        <v>0.2294930080711761</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -977,19 +977,19 @@
         <v>34923</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24406</v>
+        <v>24132</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47542</v>
+        <v>47586</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1571157454871422</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1098008590346404</v>
+        <v>0.1085692500767578</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2138902013453025</v>
+        <v>0.214086998965422</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -998,19 +998,19 @@
         <v>85255</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68305</v>
+        <v>70429</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>102682</v>
+        <v>104719</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1703175231160104</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1364565501529845</v>
+        <v>0.1406986892159119</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2051325087826941</v>
+        <v>0.2092019019497088</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>52281</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39487</v>
+        <v>40192</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>66004</v>
+        <v>67302</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1878636846697378</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1418904413809949</v>
+        <v>0.1444254506769038</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2371774022063141</v>
+        <v>0.241842048160686</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -1048,19 +1048,19 @@
         <v>43146</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32496</v>
+        <v>31788</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>56626</v>
+        <v>56135</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1941128506738801</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1462003809054526</v>
+        <v>0.1430149305135655</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2547593697565228</v>
+        <v>0.2525512751987233</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>89</v>
@@ -1069,19 +1069,19 @@
         <v>95427</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>77895</v>
+        <v>79229</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>114951</v>
+        <v>114233</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1906385990702731</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1556142936761822</v>
+        <v>0.1582801515704986</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2296430758578248</v>
+        <v>0.2282093239112567</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>65670</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51266</v>
+        <v>52359</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81217</v>
+        <v>80951</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1723090640327261</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1345140947343857</v>
+        <v>0.1373810187321794</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2131007586957104</v>
+        <v>0.2124041980570175</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -1194,19 +1194,19 @@
         <v>70499</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56885</v>
+        <v>55668</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86328</v>
+        <v>85344</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2774398323571795</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2238638657743604</v>
+        <v>0.2190735851908558</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3397299058341706</v>
+        <v>0.3358573762295662</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -1215,19 +1215,19 @@
         <v>136170</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>116214</v>
+        <v>116777</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>158652</v>
+        <v>157594</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.214364048767355</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1829482284005678</v>
+        <v>0.1838352172526445</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2497558641498562</v>
+        <v>0.2480907991438477</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>70266</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>56165</v>
+        <v>56198</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>86752</v>
+        <v>87932</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1843682391420468</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1473694705168713</v>
+        <v>0.1474556938077859</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.227625101034638</v>
+        <v>0.2307187645629985</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>36</v>
@@ -1265,19 +1265,19 @@
         <v>39985</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>28402</v>
+        <v>28980</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>53198</v>
+        <v>53293</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1573535989418841</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1117737744667343</v>
+        <v>0.1140464470130217</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2093531853151952</v>
+        <v>0.2097251299150684</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>103</v>
@@ -1286,19 +1286,19 @@
         <v>110251</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>91364</v>
+        <v>91901</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>129509</v>
+        <v>130638</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1735616950699716</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1438285808508599</v>
+        <v>0.1446740005267152</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2038778064649347</v>
+        <v>0.205655715025712</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>116791</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>99696</v>
+        <v>99562</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>134320</v>
+        <v>135790</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3064409215995119</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2615856142072761</v>
+        <v>0.2612353578128773</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3524352556136977</v>
+        <v>0.3562930666921471</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>61</v>
@@ -1336,19 +1336,19 @@
         <v>67019</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>53653</v>
+        <v>55052</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>84444</v>
+        <v>82043</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2637439511582135</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2111444176311599</v>
+        <v>0.2166497639935225</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3323182459229171</v>
+        <v>0.3228670803075395</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>176</v>
@@ -1357,19 +1357,19 @@
         <v>183810</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>158600</v>
+        <v>158288</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>207370</v>
+        <v>206867</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2893610460431754</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2496742768207357</v>
+        <v>0.2491838135635328</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3264505126364626</v>
+        <v>0.3256584095951595</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>67554</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52986</v>
+        <v>52576</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83526</v>
+        <v>84007</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1772500972699466</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1390273687343243</v>
+        <v>0.1379525920897981</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2191591719194107</v>
+        <v>0.2204202960734596</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -1407,19 +1407,19 @@
         <v>43587</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31782</v>
+        <v>32884</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57529</v>
+        <v>57338</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1715316868341566</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1250730767039206</v>
+        <v>0.1294082126867654</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2263976856440123</v>
+        <v>0.2256461011529384</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>104</v>
@@ -1428,19 +1428,19 @@
         <v>111141</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>92081</v>
+        <v>92026</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>132816</v>
+        <v>131765</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1749625874627196</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1449578753919193</v>
+        <v>0.1448715355710335</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2090841507847795</v>
+        <v>0.2074303230834394</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>60839</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48367</v>
+        <v>47856</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>77382</v>
+        <v>77048</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1596316779557686</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.126906567964148</v>
+        <v>0.1255659253170534</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2030380286237021</v>
+        <v>0.2021621075025508</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -1478,19 +1478,19 @@
         <v>33016</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23052</v>
+        <v>22467</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45205</v>
+        <v>45010</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1299309307085663</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09071873896864667</v>
+        <v>0.08841545222391252</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1778962812681038</v>
+        <v>0.17712849081506</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>88</v>
@@ -1499,19 +1499,19 @@
         <v>93855</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>76133</v>
+        <v>76245</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>112906</v>
+        <v>115584</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1477506226567784</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1198510085333581</v>
+        <v>0.1200283078656554</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1777418811735368</v>
+        <v>0.1819574094301875</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>62264</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48586</v>
+        <v>48588</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>79448</v>
+        <v>78886</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1372677694975525</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1071141688844341</v>
+        <v>0.1071188280768445</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1751535895823687</v>
+        <v>0.1739134874495148</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -1624,19 +1624,19 @@
         <v>57365</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44911</v>
+        <v>45192</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72579</v>
+        <v>72802</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2058599682278397</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1611678454136964</v>
+        <v>0.1621746991060398</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2604546799795158</v>
+        <v>0.2612547422515928</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>109</v>
@@ -1645,19 +1645,19 @@
         <v>119629</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>98412</v>
+        <v>97825</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>139886</v>
+        <v>141412</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1633708189120491</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.134396039319238</v>
+        <v>0.1335944323621743</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1910343478943382</v>
+        <v>0.193119214579044</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>88171</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>72030</v>
+        <v>71043</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>106613</v>
+        <v>106713</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1943835515277856</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1587997816654307</v>
+        <v>0.1566230927624582</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2350416792643118</v>
+        <v>0.2352615648060014</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>59</v>
@@ -1695,19 +1695,19 @@
         <v>61053</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47326</v>
+        <v>48049</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74804</v>
+        <v>77716</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2190946464566686</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1698322197550767</v>
+        <v>0.1724271198150008</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2684412980352762</v>
+        <v>0.2788888986063965</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>142</v>
@@ -1716,19 +1716,19 @@
         <v>149224</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>129102</v>
+        <v>128870</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>177683</v>
+        <v>171350</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2037874625257594</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1763075786505212</v>
+        <v>0.1759911172653392</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2426516466119952</v>
+        <v>0.2340029089954881</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>150286</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>131955</v>
+        <v>131142</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>171616</v>
+        <v>172056</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3313243330413701</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2909106484610879</v>
+        <v>0.289118157737114</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3783481068626029</v>
+        <v>0.3793196186569274</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>74</v>
@@ -1766,19 +1766,19 @@
         <v>75991</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>60994</v>
+        <v>61284</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>91101</v>
+        <v>91555</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2727008623011448</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2188806975397568</v>
+        <v>0.2199209284542865</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.326921747435511</v>
+        <v>0.3285539392477781</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>219</v>
@@ -1787,19 +1787,19 @@
         <v>226277</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>203435</v>
+        <v>200218</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>253408</v>
+        <v>252444</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.309014924946748</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2778208658108691</v>
+        <v>0.2734276401570512</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3460652820704319</v>
+        <v>0.3447490378221162</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>75237</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>60111</v>
+        <v>59821</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>93218</v>
+        <v>91003</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1658682722695511</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1325220341400118</v>
+        <v>0.1318823232038134</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2055111081364469</v>
+        <v>0.200627236468947</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -1837,19 +1837,19 @@
         <v>45113</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34892</v>
+        <v>33244</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57799</v>
+        <v>58708</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1618903896445849</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1252115735543891</v>
+        <v>0.1192985458363347</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.207416512338575</v>
+        <v>0.2106769147112709</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>115</v>
@@ -1858,19 +1858,19 @@
         <v>120349</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>102229</v>
+        <v>100216</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>142205</v>
+        <v>143735</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1643544723236877</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.139609096551912</v>
+        <v>0.1368599382463788</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1942012608669555</v>
+        <v>0.1962910204995619</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>77635</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>62693</v>
+        <v>60289</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>97265</v>
+        <v>96192</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1711560736637406</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1382146141405591</v>
+        <v>0.1329150024219369</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2144321148546367</v>
+        <v>0.2120662041047042</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>35</v>
@@ -1908,19 +1908,19 @@
         <v>39139</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28738</v>
+        <v>28166</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53301</v>
+        <v>52346</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.140454133369762</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1031301097660133</v>
+        <v>0.1010763391009122</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1912730664761863</v>
+        <v>0.1878489293884329</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>106</v>
@@ -1929,19 +1929,19 @@
         <v>116774</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>98314</v>
+        <v>97074</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>139081</v>
+        <v>137451</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1594723212917558</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1342625822396871</v>
+        <v>0.1325682089394409</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1899354306565743</v>
+        <v>0.1877099379886863</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>68266</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54531</v>
+        <v>53907</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>85598</v>
+        <v>85861</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2311393671523714</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1846344755566925</v>
+        <v>0.1825206369254278</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2898228927109158</v>
+        <v>0.2907128932063813</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -2054,19 +2054,19 @@
         <v>47040</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35809</v>
+        <v>35931</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62176</v>
+        <v>60508</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2576272306122209</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1961165925244112</v>
+        <v>0.1967888717898005</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3405238779678843</v>
+        <v>0.3313907432744299</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>104</v>
@@ -2075,19 +2075,19 @@
         <v>115306</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>95761</v>
+        <v>95342</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>135299</v>
+        <v>134203</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2412586764163208</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2003638658892606</v>
+        <v>0.1994869039918847</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2830903650583808</v>
+        <v>0.2807974102228244</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>70494</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>55189</v>
+        <v>56119</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>86353</v>
+        <v>88521</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2386825866409407</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1868626804053066</v>
+        <v>0.1900101950823527</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.292377323980114</v>
+        <v>0.2997180722562307</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>24</v>
@@ -2125,19 +2125,19 @@
         <v>26755</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17566</v>
+        <v>16838</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>36903</v>
+        <v>38674</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1465341134606128</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09620373114544009</v>
+        <v>0.09221763626689082</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2021120281579552</v>
+        <v>0.2118109027218659</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>86</v>
@@ -2146,19 +2146,19 @@
         <v>97250</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>80141</v>
+        <v>80386</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>118019</v>
+        <v>120050</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2034785808619944</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1676826079617415</v>
+        <v>0.1681948548759189</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2469355502560865</v>
+        <v>0.2511855987971406</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>91017</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>75153</v>
+        <v>76458</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>110478</v>
+        <v>107886</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3081712650090155</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.25445630677425</v>
+        <v>0.2588762313479533</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3740625049964186</v>
+        <v>0.3652850766337815</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>58</v>
@@ -2196,19 +2196,19 @@
         <v>64072</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>50159</v>
+        <v>51905</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>76867</v>
+        <v>78958</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3509096716313591</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2747101655007712</v>
+        <v>0.2842725685438044</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4209858501147619</v>
+        <v>0.4324372153503611</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>142</v>
@@ -2217,19 +2217,19 @@
         <v>155089</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>134769</v>
+        <v>135774</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>176180</v>
+        <v>176768</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3244988617861387</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2819825494371948</v>
+        <v>0.2840838827719024</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3686268685230816</v>
+        <v>0.3698571942601069</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>33226</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23392</v>
+        <v>23733</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45766</v>
+        <v>45597</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.112499771815942</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07920295363392031</v>
+        <v>0.08035787591893077</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1549560201241094</v>
+        <v>0.154385829713707</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -2267,19 +2267,19 @@
         <v>28017</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19114</v>
+        <v>19235</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39658</v>
+        <v>39293</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1534453032830408</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1046860905531327</v>
+        <v>0.1053457718203494</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2172007406761499</v>
+        <v>0.2151986425636383</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>58</v>
@@ -2288,19 +2288,19 @@
         <v>61244</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46944</v>
+        <v>47138</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>77603</v>
+        <v>78167</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1281424262912796</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09822303857638333</v>
+        <v>0.09862788120354984</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1623716869507681</v>
+        <v>0.1635508339488594</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>32343</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21562</v>
+        <v>22596</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>44007</v>
+        <v>46179</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1095070093817303</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07300511969836847</v>
+        <v>0.07650593362526682</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1490018236962389</v>
+        <v>0.1563540471305802</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -2338,19 +2338,19 @@
         <v>16704</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9580</v>
+        <v>8982</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26823</v>
+        <v>27280</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0914836810127663</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05246557999063918</v>
+        <v>0.04919146439139063</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1469021972561685</v>
+        <v>0.1494099301510873</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>43</v>
@@ -2359,19 +2359,19 @@
         <v>49046</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>36670</v>
+        <v>36869</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>67648</v>
+        <v>65608</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1026214546442665</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07672520799968464</v>
+        <v>0.07714294960526479</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1415417304100606</v>
+        <v>0.1372746612814932</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>261384</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>231768</v>
+        <v>231609</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>293216</v>
+        <v>291070</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1855956923353848</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1645669749391359</v>
+        <v>0.1644539682135719</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.208198296036679</v>
+        <v>0.206674314092936</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>202</v>
@@ -2484,19 +2484,19 @@
         <v>219865</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>194623</v>
+        <v>194615</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>247964</v>
+        <v>248880</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2344903741392868</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2075692149843717</v>
+        <v>0.2075608324145181</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2644583646081409</v>
+        <v>0.2654344674797123</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>442</v>
@@ -2505,19 +2505,19 @@
         <v>481249</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>440375</v>
+        <v>442553</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>521787</v>
+        <v>520217</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2051376995363312</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1877144796286279</v>
+        <v>0.1886432477845207</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2224175840025449</v>
+        <v>0.2217481792472681</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>258212</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>230031</v>
+        <v>229406</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>291657</v>
+        <v>287941</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1833433187964961</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1633338795455405</v>
+        <v>0.1628901637716489</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2070912834705813</v>
+        <v>0.2044524956671288</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>150</v>
@@ -2555,19 +2555,19 @@
         <v>162057</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>139469</v>
+        <v>138206</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>185019</v>
+        <v>185215</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1728367320411253</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1487457285071195</v>
+        <v>0.147399060518351</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1973255426838985</v>
+        <v>0.1975345933465416</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>389</v>
@@ -2576,19 +2576,19 @@
         <v>420269</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>384021</v>
+        <v>381946</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>462983</v>
+        <v>458721</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1791440933090641</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1636929378893789</v>
+        <v>0.1628087705004641</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1973514073679009</v>
+        <v>0.1955347229623467</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>439309</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>406423</v>
+        <v>401544</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>475407</v>
+        <v>476742</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3119315348248271</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2885811826085607</v>
+        <v>0.2851164107589611</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3375628897204061</v>
+        <v>0.3385110617783461</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>252</v>
@@ -2626,19 +2626,19 @@
         <v>272063</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>245474</v>
+        <v>246731</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>301065</v>
+        <v>302720</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2901597366649929</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2618023601281551</v>
+        <v>0.2631429896677144</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3210906978934062</v>
+        <v>0.3228563207085871</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>673</v>
@@ -2647,19 +2647,19 @@
         <v>711372</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>662534</v>
+        <v>663638</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>757567</v>
+        <v>758324</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3032298801515559</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2824124297516493</v>
+        <v>0.2828829918044569</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3229210629405558</v>
+        <v>0.323244024794824</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>226349</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>199197</v>
+        <v>201515</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>257283</v>
+        <v>256185</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1607191286449737</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1414402287101881</v>
+        <v>0.1430862345601996</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1826836619412759</v>
+        <v>0.1819043534436272</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>142</v>
@@ -2697,19 +2697,19 @@
         <v>151640</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>128086</v>
+        <v>131220</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>175242</v>
+        <v>176212</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.161726861969347</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1366064573859841</v>
+        <v>0.1399488591317221</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1868983594400449</v>
+        <v>0.1879327517544549</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>358</v>
@@ -2718,19 +2718,19 @@
         <v>377989</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>343888</v>
+        <v>342946</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>412795</v>
+        <v>418764</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1611218949818223</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1465858680963704</v>
+        <v>0.1461844877277089</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1759582154089454</v>
+        <v>0.1785025210895383</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>223097</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>195160</v>
+        <v>195549</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>253212</v>
+        <v>252936</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1584103253983183</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1385736444953398</v>
+        <v>0.1388500617310315</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1797933218041541</v>
+        <v>0.1795974381401824</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>119</v>
@@ -2768,19 +2768,19 @@
         <v>132006</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>111182</v>
+        <v>112804</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>157036</v>
+        <v>156798</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.140786295185248</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1185773889001202</v>
+        <v>0.1203069668691787</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1674820712650747</v>
+        <v>0.1672273969139812</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>326</v>
@@ -2789,19 +2789,19 @@
         <v>355103</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>316772</v>
+        <v>318616</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>389804</v>
+        <v>391216</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1513664320212265</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1350276326228574</v>
+        <v>0.1358133641499636</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1661583566058136</v>
+        <v>0.1667602046449563</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>59725</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46569</v>
+        <v>47213</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>74889</v>
+        <v>74685</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2034370375717151</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1586258660351543</v>
+        <v>0.1608197116953405</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2550890702189429</v>
+        <v>0.2543961326017282</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -3154,19 +3154,19 @@
         <v>78010</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64277</v>
+        <v>64618</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>95471</v>
+        <v>95749</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2813909628532865</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2318541380981053</v>
+        <v>0.2330853578004758</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3443743240570865</v>
+        <v>0.3453752543954579</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>130</v>
@@ -3175,19 +3175,19 @@
         <v>137735</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>119668</v>
+        <v>118225</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>160362</v>
+        <v>162200</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2412977461740044</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2096470724224189</v>
+        <v>0.2071183907775432</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2809385249597002</v>
+        <v>0.2841580728239531</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>56814</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42797</v>
+        <v>43828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>71492</v>
+        <v>70715</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1935215055757054</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1457787359693256</v>
+        <v>0.1492902465158284</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2435179135003297</v>
+        <v>0.2408715171873971</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>57</v>
@@ -3225,19 +3225,19 @@
         <v>58147</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44666</v>
+        <v>46554</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72685</v>
+        <v>72681</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2097438180136827</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1611142117799855</v>
+        <v>0.1679242839115817</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.262183567187979</v>
+        <v>0.2621682355251437</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>110</v>
@@ -3246,19 +3246,19 @@
         <v>114961</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>96954</v>
+        <v>97082</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>135230</v>
+        <v>134774</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2014003678889384</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.16985439128385</v>
+        <v>0.1700777928616944</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2369095932608182</v>
+        <v>0.2361099728064651</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>109115</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>91537</v>
+        <v>93452</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>127547</v>
+        <v>127697</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3716739720774669</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3117985800511623</v>
+        <v>0.3183192624423418</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4344567871635947</v>
+        <v>0.4349683672797306</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>82</v>
@@ -3296,19 +3296,19 @@
         <v>82989</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>68337</v>
+        <v>68467</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>99687</v>
+        <v>98950</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2993504052428786</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2464967562212688</v>
+        <v>0.2469663515368069</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3595797172591196</v>
+        <v>0.3569233103807081</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>181</v>
@@ -3317,19 +3317,19 @@
         <v>192105</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>167261</v>
+        <v>168949</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>216194</v>
+        <v>216496</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3365478193005282</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2930238105995959</v>
+        <v>0.2959822671352463</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3787499487086893</v>
+        <v>0.3792791388014466</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>43099</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30620</v>
+        <v>31406</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55696</v>
+        <v>56002</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1468065804694066</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1042984436327006</v>
+        <v>0.1069759791174577</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1897159220835995</v>
+        <v>0.190755250277862</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -3367,19 +3367,19 @@
         <v>45393</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34094</v>
+        <v>34307</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59497</v>
+        <v>59723</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1637377946524779</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1229791902336146</v>
+        <v>0.1237504170208857</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2146105740595055</v>
+        <v>0.2154279105601244</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -3388,19 +3388,19 @@
         <v>88492</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70848</v>
+        <v>71242</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107447</v>
+        <v>106448</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1550297426020741</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1241179517029764</v>
+        <v>0.1248081976851991</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1882367793241571</v>
+        <v>0.1864870471776622</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>24825</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16453</v>
+        <v>15823</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35736</v>
+        <v>36789</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08456090430570593</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05604202611013528</v>
+        <v>0.05389806803148639</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1217245538751463</v>
+        <v>0.1253128513635825</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -3438,19 +3438,19 @@
         <v>12691</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7165</v>
+        <v>6978</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22072</v>
+        <v>21257</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04577701923767438</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02584382778418981</v>
+        <v>0.02517065546727389</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07961568968291689</v>
+        <v>0.07667553493557701</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>34</v>
@@ -3459,19 +3459,19 @@
         <v>37516</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27138</v>
+        <v>26845</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>52857</v>
+        <v>51239</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06572432403445493</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04754332911808861</v>
+        <v>0.04703050033075409</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09260031129669391</v>
+        <v>0.08976568691123367</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>85117</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69754</v>
+        <v>69097</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>101935</v>
+        <v>101547</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2179840617069112</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1786402343332597</v>
+        <v>0.1769562614547171</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2610543505351602</v>
+        <v>0.2600614822564886</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -3584,19 +3584,19 @@
         <v>76096</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62110</v>
+        <v>61168</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92900</v>
+        <v>93343</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2817826274424612</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2299927177634611</v>
+        <v>0.2265049914290584</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3440076482098816</v>
+        <v>0.3456461738045957</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>153</v>
@@ -3605,19 +3605,19 @@
         <v>161213</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>140489</v>
+        <v>141036</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>184030</v>
+        <v>187163</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2440677403992441</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2126927311745774</v>
+        <v>0.2135211026061189</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2786111330341411</v>
+        <v>0.283353560541444</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>67861</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>54907</v>
+        <v>53272</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>83854</v>
+        <v>84952</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1737912682007932</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1406152715399997</v>
+        <v>0.1364302026974768</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2147486096387247</v>
+        <v>0.2175611084923181</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -3655,19 +3655,19 @@
         <v>46026</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>35090</v>
+        <v>34389</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>59674</v>
+        <v>59737</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1704317347754497</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1299383567996784</v>
+        <v>0.127342089735219</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2209721102781372</v>
+        <v>0.221205394798707</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>110</v>
@@ -3676,19 +3676,19 @@
         <v>113887</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>94911</v>
+        <v>95092</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>134288</v>
+        <v>133890</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1724177421753643</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.143689506319927</v>
+        <v>0.1439641960634668</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2033036414355548</v>
+        <v>0.2027018340880715</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>115584</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>98925</v>
+        <v>98269</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>135442</v>
+        <v>134659</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2960099679329944</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2533460126698301</v>
+        <v>0.2516664831676586</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3468655243195758</v>
+        <v>0.3448608071169363</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>83</v>
@@ -3726,19 +3726,19 @@
         <v>83769</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>69774</v>
+        <v>69691</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>98595</v>
+        <v>99843</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3101934794827455</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2583717216106522</v>
+        <v>0.2580629535669607</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3650954419931848</v>
+        <v>0.3697160468737957</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>194</v>
@@ -3747,19 +3747,19 @@
         <v>199353</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>176640</v>
+        <v>175767</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>223381</v>
+        <v>223149</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3018088155046812</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2674230544909513</v>
+        <v>0.266101056937515</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3381856749359236</v>
+        <v>0.337834502556187</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>71549</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57332</v>
+        <v>57212</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87780</v>
+        <v>87362</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1832358380637059</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1468274932489051</v>
+        <v>0.1465198541779127</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.224804031983171</v>
+        <v>0.2237340139057995</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -3797,19 +3797,19 @@
         <v>35818</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26279</v>
+        <v>25985</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47399</v>
+        <v>49565</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.132632333961947</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09731135805450447</v>
+        <v>0.09622074459875937</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1755164178232475</v>
+        <v>0.1835388729523566</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>105</v>
@@ -3818,19 +3818,19 @@
         <v>107367</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90195</v>
+        <v>88709</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>128673</v>
+        <v>127123</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1625468848485565</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1365494903007393</v>
+        <v>0.1343003895498088</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1948042860846728</v>
+        <v>0.1924561791574813</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>50363</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37735</v>
+        <v>37239</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65349</v>
+        <v>65756</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1289788640955954</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09663932108140079</v>
+        <v>0.09536828968089202</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1673571639003654</v>
+        <v>0.168401485745189</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -3868,19 +3868,19 @@
         <v>28345</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19088</v>
+        <v>19825</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39091</v>
+        <v>40693</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1049598243373965</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07068408587614289</v>
+        <v>0.07341079311587945</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1447516929200208</v>
+        <v>0.1506855556408785</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>72</v>
@@ -3889,19 +3889,19 @@
         <v>78708</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>61890</v>
+        <v>62345</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>99296</v>
+        <v>97231</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1191588170721538</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09369856131388823</v>
+        <v>0.09438710260124022</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1503280142395241</v>
+        <v>0.147202117527088</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>103041</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>84803</v>
+        <v>84365</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>122510</v>
+        <v>122445</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2258740559635071</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1858941963419558</v>
+        <v>0.1849348907156204</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2685512048945391</v>
+        <v>0.2684086165437615</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -4014,19 +4014,19 @@
         <v>47313</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36377</v>
+        <v>35165</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60800</v>
+        <v>59960</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1627923409818777</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1251651606071491</v>
+        <v>0.1209945650038142</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.209197696075038</v>
+        <v>0.2063052008772941</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>144</v>
@@ -4035,19 +4035,19 @@
         <v>150354</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>128650</v>
+        <v>130019</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>173218</v>
+        <v>173703</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2013250677576688</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1722630000500919</v>
+        <v>0.1740954626775773</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2319399809060826</v>
+        <v>0.2325891278901988</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>72475</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>57434</v>
+        <v>58028</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>89080</v>
+        <v>90192</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1588700556499206</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1259006720013756</v>
+        <v>0.1272015806757515</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1952712680024435</v>
+        <v>0.1977075624404886</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -4085,19 +4085,19 @@
         <v>63999</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>51450</v>
+        <v>51496</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>79361</v>
+        <v>79566</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2202049386770832</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1770247456578907</v>
+        <v>0.17718519859218</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2730616622907195</v>
+        <v>0.273767513676953</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>132</v>
@@ -4106,19 +4106,19 @@
         <v>136474</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>116898</v>
+        <v>114388</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>158576</v>
+        <v>158059</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1827392437415693</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1565265650571342</v>
+        <v>0.1531659927207281</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.212334201519003</v>
+        <v>0.2116419750164982</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>130434</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>109879</v>
+        <v>111943</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>150381</v>
+        <v>150237</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2859207584316834</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2408628380017938</v>
+        <v>0.2453877973763273</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3296468175811327</v>
+        <v>0.3293311319397209</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>85</v>
@@ -4156,19 +4156,19 @@
         <v>83776</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>69616</v>
+        <v>69567</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>100508</v>
+        <v>100263</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.288250667654579</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2395315952057839</v>
+        <v>0.2393608758281035</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3458205619228844</v>
+        <v>0.3449799109073938</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>206</v>
@@ -4177,19 +4177,19 @@
         <v>214210</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>190299</v>
+        <v>189851</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>240190</v>
+        <v>239999</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2868274698939541</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2548113120484475</v>
+        <v>0.254211427618892</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3216158880215648</v>
+        <v>0.3213600358848017</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>101405</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>84474</v>
+        <v>84096</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>121031</v>
+        <v>119540</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2222883569084218</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1851747492372894</v>
+        <v>0.1843440392203891</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2653100355148779</v>
+        <v>0.2620403924035159</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -4227,19 +4227,19 @@
         <v>58561</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45445</v>
+        <v>44825</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72671</v>
+        <v>72175</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.201491989014162</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1563633796957022</v>
+        <v>0.1542328351658756</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2500415023315635</v>
+        <v>0.2483367594017855</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>153</v>
@@ -4248,19 +4248,19 @@
         <v>159966</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>138909</v>
+        <v>134874</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>180076</v>
+        <v>182806</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2141952067727742</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1859997188855005</v>
+        <v>0.1805971484849952</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2411220037348835</v>
+        <v>0.2447772219407612</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>48833</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37077</v>
+        <v>37457</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>63386</v>
+        <v>64277</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1070467730464671</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08127673308135319</v>
+        <v>0.08210854330168331</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1389469522632836</v>
+        <v>0.1408998586799863</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -4298,19 +4298,19 @@
         <v>36986</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27037</v>
+        <v>27515</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48901</v>
+        <v>49244</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1272600636722981</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09302564496853774</v>
+        <v>0.09467123090638689</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.168256535735701</v>
+        <v>0.1694345388214246</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>83</v>
@@ -4319,19 +4319,19 @@
         <v>85820</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>68568</v>
+        <v>70012</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>104138</v>
+        <v>105535</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1149130118340336</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09181222379826326</v>
+        <v>0.0937457903140619</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1394413407624935</v>
+        <v>0.1413115461921838</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>79923</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64829</v>
+        <v>64513</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>96574</v>
+        <v>96618</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2904710318613259</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2356130649616694</v>
+        <v>0.2344664256314327</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3509886985570577</v>
+        <v>0.3511481420457416</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>58</v>
@@ -4444,19 +4444,19 @@
         <v>59034</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46966</v>
+        <v>46909</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>70528</v>
+        <v>74349</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3042017904353844</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2420123748395508</v>
+        <v>0.2417220204820585</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3634279126680537</v>
+        <v>0.3831200577872998</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>130</v>
@@ -4465,19 +4465,19 @@
         <v>138957</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>120930</v>
+        <v>118110</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>162053</v>
+        <v>158453</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2961499797691213</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2577296272074912</v>
+        <v>0.2517203011923982</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.345372515470766</v>
+        <v>0.3376999878767137</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>47389</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>35285</v>
+        <v>35443</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>62426</v>
+        <v>62055</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1722315360148369</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1282412048045431</v>
+        <v>0.1288120715814932</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2268814536421186</v>
+        <v>0.2255305974468562</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>25</v>
@@ -4515,19 +4515,19 @@
         <v>25858</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>16819</v>
+        <v>17446</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35855</v>
+        <v>36925</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1332446807558738</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08666963330314396</v>
+        <v>0.08990093961978521</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1847575099974964</v>
+        <v>0.1902724533028591</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>67</v>
@@ -4536,19 +4536,19 @@
         <v>73247</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>57400</v>
+        <v>57422</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>89309</v>
+        <v>89541</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1561068391228014</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1223320012622885</v>
+        <v>0.1223806503776598</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1903387793935922</v>
+        <v>0.1908316693418285</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>71754</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>56829</v>
+        <v>57337</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>86804</v>
+        <v>89607</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2607818733554271</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2065401132206577</v>
+        <v>0.2083864482077978</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3154784840032675</v>
+        <v>0.3256688615649503</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>47</v>
@@ -4586,19 +4586,19 @@
         <v>50449</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>38992</v>
+        <v>39387</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>64720</v>
+        <v>63490</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2599629583824795</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2009232273970742</v>
+        <v>0.2029590326284096</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3335024448543855</v>
+        <v>0.3271627201414498</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>111</v>
@@ -4607,19 +4607,19 @@
         <v>122203</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>102682</v>
+        <v>104057</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>143597</v>
+        <v>144047</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2604431757192259</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.218839405261236</v>
+        <v>0.221768973981523</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3060378976815607</v>
+        <v>0.3069981652267851</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>41056</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30127</v>
+        <v>29454</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54938</v>
+        <v>53873</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.149212937660943</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1094938987246642</v>
+        <v>0.1070470296597771</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1996652210912107</v>
+        <v>0.195796892743681</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -4657,19 +4657,19 @@
         <v>39399</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>28552</v>
+        <v>28621</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53525</v>
+        <v>52648</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2030210983437319</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1471264590640833</v>
+        <v>0.1474844884546089</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2758117197819984</v>
+        <v>0.2712958041337898</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>73</v>
@@ -4678,19 +4678,19 @@
         <v>80455</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>63773</v>
+        <v>65820</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>100570</v>
+        <v>101955</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1714676251848474</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1359156604325219</v>
+        <v>0.1402769794353354</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2143376298295456</v>
+        <v>0.2172897397224471</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>35027</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24756</v>
+        <v>24570</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>47285</v>
+        <v>47445</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1273026211074671</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08997202247555164</v>
+        <v>0.08929613987503367</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1718512939513545</v>
+        <v>0.1724335884055917</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -4728,19 +4728,19 @@
         <v>19323</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11645</v>
+        <v>12080</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29027</v>
+        <v>29308</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09956947208253049</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06000704788279124</v>
+        <v>0.06224768884787405</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1495763892105329</v>
+        <v>0.1510232336912694</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>52</v>
@@ -4749,19 +4749,19 @@
         <v>54350</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>42422</v>
+        <v>42241</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>71851</v>
+        <v>71363</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.115832380204004</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09041161376932058</v>
+        <v>0.09002474121819155</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1531309287339807</v>
+        <v>0.15209126249766</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>327806</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>296172</v>
+        <v>297413</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>361131</v>
+        <v>363368</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2316010692506471</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2092509022748105</v>
+        <v>0.2101279672783284</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2551458339577151</v>
+        <v>0.2567267494941077</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>253</v>
@@ -4874,19 +4874,19 @@
         <v>260454</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>233368</v>
+        <v>233202</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>288551</v>
+        <v>290425</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2523822850810882</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2261355640483041</v>
+        <v>0.2259746254508813</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2796088424533376</v>
+        <v>0.2814247485902545</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>557</v>
@@ -4895,19 +4895,19 @@
         <v>588260</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>548186</v>
+        <v>541921</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>635286</v>
+        <v>629046</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2403638707485204</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2239898176654778</v>
+        <v>0.2214296005241178</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2595788169906691</v>
+        <v>0.2570293764307266</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>244539</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>217095</v>
+        <v>215239</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>279464</v>
+        <v>271907</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1727712817487165</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1533815076624479</v>
+        <v>0.1520705869640983</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1974468683519603</v>
+        <v>0.1921074723997838</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>190</v>
@@ -4945,19 +4945,19 @@
         <v>194030</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>170194</v>
+        <v>167918</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>221503</v>
+        <v>221662</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1880170599121515</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1649195533599453</v>
+        <v>0.1627141238929888</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.214637981870043</v>
+        <v>0.2147922964378869</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>419</v>
@@ -4966,19 +4966,19 @@
         <v>438569</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>399887</v>
+        <v>401910</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>476957</v>
+        <v>483780</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1791999589164449</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1633945587708425</v>
+        <v>0.1642212383959258</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1948853723269709</v>
+        <v>0.1976730980934595</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>426887</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>392204</v>
+        <v>391374</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>461672</v>
+        <v>461061</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3016039926789792</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2770995862162444</v>
+        <v>0.2765133103806528</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3261803835660933</v>
+        <v>0.3257484886102014</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>297</v>
@@ -5016,19 +5016,19 @@
         <v>300983</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>273497</v>
+        <v>274960</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>335514</v>
+        <v>333680</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2916550932061491</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2650209434403253</v>
+        <v>0.2664389779249661</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3251158255631336</v>
+        <v>0.3233390920975265</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>692</v>
@@ -5037,19 +5037,19 @@
         <v>727870</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>687805</v>
+        <v>682935</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>773873</v>
+        <v>780543</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2974088468360203</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2810383952693975</v>
+        <v>0.2790481328817772</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3162058675437617</v>
+        <v>0.3189312060794625</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>257109</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>227167</v>
+        <v>224273</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>286503</v>
+        <v>288328</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1816525984733617</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1604975466494309</v>
+        <v>0.1584528228182016</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2024195669481738</v>
+        <v>0.2037095656233851</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>173</v>
@@ -5087,19 +5087,19 @@
         <v>179170</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>155425</v>
+        <v>155282</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>203215</v>
+        <v>204132</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1736178372774181</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1506079745434218</v>
+        <v>0.1504692981961596</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.19691690317254</v>
+        <v>0.1978061755745335</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>415</v>
@@ -5108,19 +5108,19 @@
         <v>436280</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>401752</v>
+        <v>399932</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>476233</v>
+        <v>477628</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1782645860482305</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1641565261686147</v>
+        <v>0.1634128615490387</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1945897291327354</v>
+        <v>0.1951597355460982</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>159049</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>135259</v>
+        <v>136459</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>185221</v>
+        <v>184306</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1123710578482954</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09556286933439891</v>
+        <v>0.0964108058446457</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1308622156056467</v>
+        <v>0.1302154868211613</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>95</v>
@@ -5158,19 +5158,19 @@
         <v>97345</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>79818</v>
+        <v>82048</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>119750</v>
+        <v>117637</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09432772452319305</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07734482028223254</v>
+        <v>0.07950545533022808</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1160388330650902</v>
+        <v>0.11399166491081</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>241</v>
@@ -5179,19 +5179,19 @@
         <v>256393</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>227568</v>
+        <v>226649</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>289306</v>
+        <v>290589</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1047627374507839</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09298455272767935</v>
+        <v>0.09260923445480973</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.118210680637703</v>
+        <v>0.1187351908611014</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>12394</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5702</v>
+        <v>5557</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22687</v>
+        <v>22352</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3370716959089988</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1550681751833349</v>
+        <v>0.1511405025529369</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6169867431749043</v>
+        <v>0.6078997814644616</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -5544,19 +5544,19 @@
         <v>13434</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8018</v>
+        <v>8356</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19432</v>
+        <v>19961</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3467454313442357</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2069635919042417</v>
+        <v>0.2156900034156702</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5015738089620431</v>
+        <v>0.5152180608132054</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -5565,19 +5565,19 @@
         <v>25828</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17596</v>
+        <v>16705</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37687</v>
+        <v>37088</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3420349307809956</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.233013268616354</v>
+        <v>0.2212173801985906</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.499074075154176</v>
+        <v>0.4911498161649416</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>3590</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>975</v>
+        <v>1030</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9551</v>
+        <v>9491</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09762948810266113</v>
+        <v>0.09762948810266112</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02651302403572617</v>
+        <v>0.02802485625002573</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2597600600364157</v>
+        <v>0.2581222467027856</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -5615,19 +5615,19 @@
         <v>3258</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>851</v>
+        <v>817</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7412</v>
+        <v>6967</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08408576432485522</v>
+        <v>0.08408576432485519</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02195410019716683</v>
+        <v>0.02108308390362816</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1913192572131384</v>
+        <v>0.1798231551112946</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -5636,19 +5636,19 @@
         <v>6848</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2905</v>
+        <v>2504</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13707</v>
+        <v>13259</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.09068070574234927</v>
+        <v>0.09068070574234925</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03846763844348252</v>
+        <v>0.03316343975587179</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1815220055649243</v>
+        <v>0.1755830408203609</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>10063</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4831</v>
+        <v>4652</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17299</v>
+        <v>17257</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2736642114052464</v>
+        <v>0.2736642114052463</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1313826245186163</v>
+        <v>0.1265248011643279</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4704773677896997</v>
+        <v>0.4693125202792823</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -5686,19 +5686,19 @@
         <v>8969</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4850</v>
+        <v>4902</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14293</v>
+        <v>15044</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.231488148758455</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1251857146204554</v>
+        <v>0.1265251443996669</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3689232430819726</v>
+        <v>0.3882917862718553</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>19</v>
@@ -5707,19 +5707,19 @@
         <v>19031</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11869</v>
+        <v>11291</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>28759</v>
+        <v>27821</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2520252378883995</v>
+        <v>0.2520252378883994</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1571724853512066</v>
+        <v>0.1495272624835488</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3808535599101621</v>
+        <v>0.3684327506163672</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>6688</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1910</v>
+        <v>2387</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14904</v>
+        <v>15873</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1818817524690961</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05195196367415724</v>
+        <v>0.06492314472594883</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4053305569297236</v>
+        <v>0.4316925796711131</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -5757,19 +5757,19 @@
         <v>6562</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3187</v>
+        <v>2985</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12698</v>
+        <v>11975</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1693826914563679</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08226802548963202</v>
+        <v>0.07705389653391431</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3277602638932925</v>
+        <v>0.3090912460860113</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -5778,19 +5778,19 @@
         <v>13250</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6957</v>
+        <v>7291</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21715</v>
+        <v>22932</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1754689478290581</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09213269228062756</v>
+        <v>0.09655322746130281</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2875623009848254</v>
+        <v>0.3036848139118025</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>4036</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1043</v>
+        <v>1018</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10613</v>
+        <v>10464</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1097528521139977</v>
+        <v>0.1097528521139976</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02836746378754286</v>
+        <v>0.02769383362773493</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2886198288779985</v>
+        <v>0.284583227603564</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -5828,19 +5828,19 @@
         <v>6520</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2927</v>
+        <v>2746</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12068</v>
+        <v>11852</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1682979641160862</v>
+        <v>0.1682979641160861</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.075561993951619</v>
+        <v>0.07087213037010358</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3114757123402855</v>
+        <v>0.3059111192656177</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -5849,19 +5849,19 @@
         <v>10556</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5464</v>
+        <v>5732</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19225</v>
+        <v>20010</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1397901777591976</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07236431081857018</v>
+        <v>0.0759134673328621</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2545864145834326</v>
+        <v>0.2649926622511666</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>28233</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18595</v>
+        <v>17878</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41017</v>
+        <v>40746</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2416331722255926</v>
+        <v>0.2416331722255925</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.159150124984217</v>
+        <v>0.1530112832614335</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3510467630219996</v>
+        <v>0.3487285598718087</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -5974,19 +5974,19 @@
         <v>23684</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15934</v>
+        <v>16123</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32928</v>
+        <v>32359</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2434197107979696</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1637658774430609</v>
+        <v>0.1657133332904624</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3384296704422849</v>
+        <v>0.3325861307376101</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -5995,19 +5995,19 @@
         <v>51916</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39648</v>
+        <v>38247</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67535</v>
+        <v>67311</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2424449042322775</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.185152058313256</v>
+        <v>0.178610076923062</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3153841449562514</v>
+        <v>0.3143358110065644</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>16185</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9220</v>
+        <v>9239</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25413</v>
+        <v>25309</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1385230782940594</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07891243931407614</v>
+        <v>0.07906898791194342</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2174973518864955</v>
+        <v>0.216610345421688</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -6045,19 +6045,19 @@
         <v>13646</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8285</v>
+        <v>8224</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20356</v>
+        <v>20924</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1402539463713083</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08514893591178356</v>
+        <v>0.08452335841566887</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2092172790994746</v>
+        <v>0.2150566987791832</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -6066,19 +6066,19 @@
         <v>29831</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21108</v>
+        <v>20601</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>41515</v>
+        <v>41388</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1393095158439539</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0985711328091854</v>
+        <v>0.09620704643131434</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1938729812518907</v>
+        <v>0.1932767036214099</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>38482</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27503</v>
+        <v>26802</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50829</v>
+        <v>49781</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3293492558935529</v>
+        <v>0.3293492558935528</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2353878137893216</v>
+        <v>0.229385517305088</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.435026591873669</v>
+        <v>0.4260566238907725</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>42</v>
@@ -6116,19 +6116,19 @@
         <v>32746</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25320</v>
+        <v>23985</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42270</v>
+        <v>41587</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3365595306120898</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2602370155854165</v>
+        <v>0.2465212523124628</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4344536216926165</v>
+        <v>0.4274283762057209</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>73</v>
@@ -6137,19 +6137,19 @@
         <v>71227</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>58128</v>
+        <v>56992</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>87429</v>
+        <v>86665</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3326253176906628</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2714515034809032</v>
+        <v>0.2661488859170361</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.408283730974336</v>
+        <v>0.404716691671434</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>22550</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13191</v>
+        <v>14124</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32909</v>
+        <v>33231</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1929918601714355</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1128949584285273</v>
+        <v>0.1208817145622316</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2816576714367316</v>
+        <v>0.2844124321522855</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -6187,19 +6187,19 @@
         <v>21094</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14410</v>
+        <v>14199</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29434</v>
+        <v>29298</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2168096440428911</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.148108943908372</v>
+        <v>0.145936731641056</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3025220078159435</v>
+        <v>0.3011294974152932</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -6208,19 +6208,19 @@
         <v>43644</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31010</v>
+        <v>30912</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56024</v>
+        <v>56995</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2038137129966122</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1448127032046311</v>
+        <v>0.144354204886647</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2616279532626885</v>
+        <v>0.266161751762132</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>11392</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5236</v>
+        <v>5454</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20115</v>
+        <v>21592</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09750263341535974</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04480995887719882</v>
+        <v>0.04667617446290275</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1721533606561254</v>
+        <v>0.1847984332285263</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -6258,19 +6258,19 @@
         <v>6125</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2619</v>
+        <v>2570</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11450</v>
+        <v>11812</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.06295716817574126</v>
+        <v>0.06295716817574125</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02691380249188872</v>
+        <v>0.02641262077146629</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1176833495532353</v>
+        <v>0.1214024328751008</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -6279,19 +6279,19 @@
         <v>17518</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10668</v>
+        <v>10491</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28737</v>
+        <v>27284</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.08180654923649347</v>
+        <v>0.08180654923649348</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04982004949065385</v>
+        <v>0.04899416472774377</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1341992067514307</v>
+        <v>0.1274132563020902</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>32503</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22069</v>
+        <v>22956</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43693</v>
+        <v>44879</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.277036469070066</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1880973440132958</v>
+        <v>0.1956620244953066</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3724121015779002</v>
+        <v>0.3825179641182232</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -6404,19 +6404,19 @@
         <v>33199</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25117</v>
+        <v>24998</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43476</v>
+        <v>42803</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2768618354211521</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.209463953091353</v>
+        <v>0.2084739339328191</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3625695911859486</v>
+        <v>0.3569597714945612</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>69</v>
@@ -6425,19 +6425,19 @@
         <v>65702</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>51077</v>
+        <v>52545</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>79942</v>
+        <v>80941</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2769482003159645</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2153008804997606</v>
+        <v>0.2214878741620863</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3369724664364427</v>
+        <v>0.3411849153188043</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>24001</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15812</v>
+        <v>16346</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34230</v>
+        <v>35485</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2045643103010897</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1347692607159936</v>
+        <v>0.1393218390248037</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2917525543045609</v>
+        <v>0.3024494428402645</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -6475,19 +6475,19 @@
         <v>22704</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16324</v>
+        <v>16008</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31050</v>
+        <v>31326</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1893416185232734</v>
+        <v>0.1893416185232735</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1361345151166167</v>
+        <v>0.1335016400880172</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2589403551631935</v>
+        <v>0.2612428136873831</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>54</v>
@@ -6496,19 +6496,19 @@
         <v>46705</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>36735</v>
+        <v>34909</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>59589</v>
+        <v>59286</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1968699853777061</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1548441296520301</v>
+        <v>0.1471508740093805</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2511816126418215</v>
+        <v>0.2499044659782423</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>35073</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24922</v>
+        <v>24960</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45953</v>
+        <v>45930</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2989425776438793</v>
+        <v>0.2989425776438794</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2124176673661375</v>
+        <v>0.2127458298855281</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3916704672940924</v>
+        <v>0.3914785878857341</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>56</v>
@@ -6546,19 +6546,19 @@
         <v>42084</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>32791</v>
+        <v>33879</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>52860</v>
+        <v>52513</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3509581245012042</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2734599592580065</v>
+        <v>0.2825314281499752</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4408307365398145</v>
+        <v>0.4379293897880488</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>89</v>
@@ -6567,19 +6567,19 @@
         <v>77157</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>61900</v>
+        <v>63419</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>91951</v>
+        <v>91311</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3252338883022863</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2609230149567229</v>
+        <v>0.267325349033835</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3875931300583189</v>
+        <v>0.3848965486335697</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>18776</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11161</v>
+        <v>11276</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31675</v>
+        <v>30507</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1600363566368707</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09512506668688719</v>
+        <v>0.09610799193077633</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2699751262008551</v>
+        <v>0.2600208220229469</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -6617,19 +6617,19 @@
         <v>12729</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7748</v>
+        <v>7394</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19770</v>
+        <v>20348</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1061547894773597</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0646115847244241</v>
+        <v>0.06166547939860154</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1648706529045553</v>
+        <v>0.1696909084898665</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -6638,19 +6638,19 @@
         <v>31505</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20710</v>
+        <v>22070</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44376</v>
+        <v>46057</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1328018641333465</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08729623466770164</v>
+        <v>0.09302803816470098</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1870549678427864</v>
+        <v>0.1941398665770049</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>6971</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1461</v>
+        <v>2140</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21424</v>
+        <v>22336</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0594202863480942</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0124492015048151</v>
+        <v>0.01824174595751147</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.182599741029878</v>
+        <v>0.1903799107953035</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -6688,19 +6688,19 @@
         <v>9195</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4980</v>
+        <v>4812</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15274</v>
+        <v>15650</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07668363207701061</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04152966044292637</v>
+        <v>0.04013049429267546</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1273814801582974</v>
+        <v>0.1305114623427963</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -6709,19 +6709,19 @@
         <v>16167</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9223</v>
+        <v>9929</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>28294</v>
+        <v>30107</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06814606187069663</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03887604032752634</v>
+        <v>0.04185144418041997</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1192652796909455</v>
+        <v>0.1269083975318588</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>97974</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>82399</v>
+        <v>80877</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>115188</v>
+        <v>113825</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4856356141026089</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4084341730932327</v>
+        <v>0.4008907971205937</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5709604063649032</v>
+        <v>0.5642032458239097</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>78</v>
@@ -6834,19 +6834,19 @@
         <v>57531</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>47687</v>
+        <v>47302</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>68577</v>
+        <v>67706</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4460177596564292</v>
+        <v>0.4460177596564291</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.369701804111045</v>
+        <v>0.3667150953104737</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5316506503319343</v>
+        <v>0.5248998832989925</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>159</v>
@@ -6855,19 +6855,19 @@
         <v>155505</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>136109</v>
+        <v>136089</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>174671</v>
+        <v>175320</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.470184369611072</v>
+        <v>0.4701843696110719</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.411538100171901</v>
+        <v>0.4114766335621683</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5281338421737897</v>
+        <v>0.5300952781901396</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>25418</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16892</v>
+        <v>16790</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>37148</v>
+        <v>37064</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1259923720477347</v>
+        <v>0.1259923720477346</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08373117836915678</v>
+        <v>0.08322228790567014</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1841342409015882</v>
+        <v>0.1837185135862368</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>32</v>
@@ -6905,19 +6905,19 @@
         <v>23896</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>16919</v>
+        <v>16998</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>32449</v>
+        <v>32000</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1852575682061754</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1311707854997018</v>
+        <v>0.1317795830410939</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2515691224946695</v>
+        <v>0.2480881508325524</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>56</v>
@@ -6926,19 +6926,19 @@
         <v>49314</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>37678</v>
+        <v>36887</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>62834</v>
+        <v>63575</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.149106219288679</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1139222137654395</v>
+        <v>0.1115306391565285</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1899834842430442</v>
+        <v>0.1922238249635854</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>41356</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29182</v>
+        <v>30286</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>58089</v>
+        <v>56625</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2049930659918626</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1446469479941732</v>
+        <v>0.1501205215079957</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2879343813959413</v>
+        <v>0.2806774600422661</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>26</v>
@@ -6976,19 +6976,19 @@
         <v>18841</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12545</v>
+        <v>12951</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>27446</v>
+        <v>27474</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1460659962118435</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09725820277667246</v>
+        <v>0.1004058368753147</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2127812023268587</v>
+        <v>0.2129979993806573</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>62</v>
@@ -6997,19 +6997,19 @@
         <v>60197</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>46715</v>
+        <v>46596</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>76294</v>
+        <v>75882</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1820110904389504</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1412458197343342</v>
+        <v>0.1408861780561707</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2306827928622931</v>
+        <v>0.2294358022274992</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>15031</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7788</v>
+        <v>7610</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30823</v>
+        <v>30460</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.0745029145685752</v>
+        <v>0.07450291456857519</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03860563990412599</v>
+        <v>0.03771943311528841</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1527815199074305</v>
+        <v>0.1509856595636758</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -7047,19 +7047,19 @@
         <v>8603</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4685</v>
+        <v>4923</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13688</v>
+        <v>14862</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06669554503118558</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03631798166610686</v>
+        <v>0.03816823047591341</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.106121236064769</v>
+        <v>0.1152174744574613</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -7068,19 +7068,19 @@
         <v>23634</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15008</v>
+        <v>15022</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38664</v>
+        <v>38928</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0714579850224317</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04537919267695217</v>
+        <v>0.0454212435215157</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1169027040381308</v>
+        <v>0.1177014463693222</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>21965</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13007</v>
+        <v>12887</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>34751</v>
+        <v>34529</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1088760332892188</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06447369328474167</v>
+        <v>0.06387621797915523</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1722513935061356</v>
+        <v>0.1711546383602436</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -7118,19 +7118,19 @@
         <v>20117</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12936</v>
+        <v>13498</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>28975</v>
+        <v>30064</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1559631308943664</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1002878241164936</v>
+        <v>0.1046472815203103</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2246325369087925</v>
+        <v>0.2330745757469542</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>38</v>
@@ -7139,19 +7139,19 @@
         <v>42083</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>31080</v>
+        <v>29865</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>57672</v>
+        <v>56763</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1272403356388671</v>
+        <v>0.127240335638867</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09397188179920875</v>
+        <v>0.09029890433620999</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1743767808736024</v>
+        <v>0.1716268722405556</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>171105</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>146459</v>
+        <v>146953</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>196109</v>
+        <v>197114</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3619873056737317</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3098469129170698</v>
+        <v>0.3108934831339415</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.414886914791519</v>
+        <v>0.4170125281181264</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>162</v>
@@ -7264,19 +7264,19 @@
         <v>127847</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>112299</v>
+        <v>111833</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>145039</v>
+        <v>145360</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3321249122214189</v>
+        <v>0.3321249122214188</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2917324933993364</v>
+        <v>0.2905226399371191</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3767852140155983</v>
+        <v>0.3776183522612603</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>297</v>
@@ -7285,19 +7285,19 @@
         <v>298952</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>271612</v>
+        <v>269651</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>331055</v>
+        <v>330153</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3485837305077646</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.316704932504598</v>
+        <v>0.3144184991422176</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3860167952662367</v>
+        <v>0.3849644902023189</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>69194</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>54379</v>
+        <v>52852</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>86063</v>
+        <v>86791</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1463859073226499</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1150446985170079</v>
+        <v>0.1118127870634363</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1820748941711526</v>
+        <v>0.1836151688227339</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>84</v>
@@ -7335,19 +7335,19 @@
         <v>63504</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>51155</v>
+        <v>52072</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>76782</v>
+        <v>78686</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1649721465002657</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1328912400032304</v>
+        <v>0.135274082932521</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1994671205356947</v>
+        <v>0.2044133175883331</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>148</v>
@@ -7356,19 +7356,19 @@
         <v>132698</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>113619</v>
+        <v>111796</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>155391</v>
+        <v>152909</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1547282411100484</v>
+        <v>0.1547282411100483</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1324814709014386</v>
+        <v>0.1303564035879051</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.181188341812212</v>
+        <v>0.178295056565595</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>124974</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>105489</v>
+        <v>103588</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>147418</v>
+        <v>148891</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2643938701954074</v>
+        <v>0.2643938701954073</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2231716830629486</v>
+        <v>0.219148883591216</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3118763378314569</v>
+        <v>0.314993493406048</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>135</v>
@@ -7406,19 +7406,19 @@
         <v>102639</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>86893</v>
+        <v>86285</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>117364</v>
+        <v>119404</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.266637488691711</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2257336480596051</v>
+        <v>0.2241529677137189</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3048901188112812</v>
+        <v>0.3101912236769863</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>243</v>
@@ -7427,19 +7427,19 @@
         <v>227613</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>202333</v>
+        <v>202968</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>255539</v>
+        <v>256744</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2654009063262179</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2359236705799393</v>
+        <v>0.2366646666087488</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2979636620043842</v>
+        <v>0.2993686226321966</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>63044</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>46917</v>
+        <v>45765</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>84660</v>
+        <v>83068</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1333755354529846</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0992578512746022</v>
+        <v>0.09682057959276952</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.179105769297437</v>
+        <v>0.1757387620879047</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>63</v>
@@ -7477,19 +7477,19 @@
         <v>48989</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>38234</v>
+        <v>38531</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>63012</v>
+        <v>62709</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.127264875210771</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09932621908942674</v>
+        <v>0.1000974226214186</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1636948260364897</v>
+        <v>0.1629071049718073</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>111</v>
@@ -7498,19 +7498,19 @@
         <v>112033</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>92452</v>
+        <v>91827</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>134431</v>
+        <v>136479</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1306327983712771</v>
+        <v>0.1306327983712772</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.107800528998573</v>
+        <v>0.1070718930352372</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1567493486339412</v>
+        <v>0.1591375832829192</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>44365</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>28986</v>
+        <v>30612</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>63572</v>
+        <v>62410</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09385738135522655</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06132275766986373</v>
+        <v>0.06476346778973274</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1344931559875792</v>
+        <v>0.1320333239766216</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>49</v>
@@ -7548,19 +7548,19 @@
         <v>41958</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>31723</v>
+        <v>30984</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>55625</v>
+        <v>54791</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1090005773758335</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08240991079678707</v>
+        <v>0.08049187439667266</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1445045951309066</v>
+        <v>0.1423368717809351</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>81</v>
@@ -7569,19 +7569,19 @@
         <v>86323</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>70033</v>
+        <v>69617</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>110235</v>
+        <v>107286</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.100654323684692</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08165993555811184</v>
+        <v>0.08117472067713587</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1285359171449423</v>
+        <v>0.1250971036789094</v>
       </c>
     </row>
     <row r="33">
